--- a/Исходники/request_analayze.xlsx
+++ b/Исходники/request_analayze.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="инф.об.анализе" sheetId="2" r:id="rId1"/>
@@ -13,13 +13,15 @@
     <sheet name="Контроллеры" sheetId="4" r:id="rId4"/>
     <sheet name="Представления" sheetId="5" r:id="rId5"/>
     <sheet name="БД" sheetId="6" r:id="rId6"/>
+    <sheet name="recive" sheetId="7" r:id="rId7"/>
+    <sheet name="charts_controller" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="368">
   <si>
     <t xml:space="preserve"> 0:00</t>
   </si>
@@ -1108,6 +1110,21 @@
   </si>
   <si>
     <t>Информация о блокирующих запросах(длительность более 1сек.)</t>
+  </si>
+  <si>
+    <t>Отработка действия контроллера</t>
+  </si>
+  <si>
+    <t>Обработка запросов к БД</t>
+  </si>
+  <si>
+    <t>Построение представления</t>
+  </si>
+  <si>
+    <t>charts_controller (UsersController)</t>
+  </si>
+  <si>
+    <t>recive (GeodataController)</t>
   </si>
 </sst>
 </file>
@@ -1315,7 +1332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1377,15 +1394,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1412,6 +1420,40 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1475,7 +1517,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1707,11 +1748,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="97852528"/>
-        <c:axId val="97853088"/>
+        <c:axId val="100459920"/>
+        <c:axId val="100460480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97852528"/>
+        <c:axId val="100459920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1754,7 +1795,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97853088"/>
+        <c:crossAx val="100460480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1762,7 +1803,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97853088"/>
+        <c:axId val="100460480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1813,7 +1854,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97852528"/>
+        <c:crossAx val="100459920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2740,23 +2781,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23">
+      <c r="A1" s="34">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -2844,23 +2885,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="23">
+      <c r="A1" s="34">
         <v>1</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
     </row>
     <row r="2" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -3118,8 +3159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3132,12 +3173,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="35" t="s">
         <v>361</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -3435,12 +3476,12 @@
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="35" t="s">
         <v>362</v>
       </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
     </row>
     <row r="34" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -3599,8 +3640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:G49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3615,54 +3656,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
     </row>
     <row r="2" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="27" t="s">
         <v>265</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -3686,14 +3727,14 @@
       <c r="G3" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
@@ -3717,14 +3758,14 @@
       <c r="G4" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
@@ -3748,14 +3789,14 @@
       <c r="G5" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
     </row>
     <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -3779,14 +3820,14 @@
       <c r="G6" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
     </row>
     <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
@@ -3810,14 +3851,14 @@
       <c r="G7" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
     </row>
     <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
@@ -3841,14 +3882,14 @@
       <c r="G8" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
@@ -3872,14 +3913,14 @@
       <c r="G9" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
@@ -3903,14 +3944,14 @@
       <c r="G10" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
@@ -3934,14 +3975,14 @@
       <c r="G11" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
@@ -3965,14 +4006,14 @@
       <c r="G12" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
@@ -3996,14 +4037,14 @@
       <c r="G13" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
@@ -4027,14 +4068,14 @@
       <c r="G14" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
@@ -4058,14 +4099,14 @@
       <c r="G15" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
@@ -4089,14 +4130,14 @@
       <c r="G16" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
@@ -4120,14 +4161,14 @@
       <c r="G17" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
@@ -4151,14 +4192,14 @@
       <c r="G18" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
@@ -4182,14 +4223,14 @@
       <c r="G19" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
     </row>
     <row r="20" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
@@ -4213,14 +4254,14 @@
       <c r="G20" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
     </row>
     <row r="21" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
@@ -4244,14 +4285,14 @@
       <c r="G21" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
     </row>
     <row r="22" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
@@ -4275,55 +4316,55 @@
       <c r="G22" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
     </row>
     <row r="26" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
     </row>
     <row r="28" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="30" t="s">
+      <c r="D29" s="27" t="s">
         <v>265</v>
       </c>
-      <c r="E29" s="30" t="s">
+      <c r="E29" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="F29" s="30" t="s">
+      <c r="F29" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="G29" s="31" t="s">
+      <c r="G29" s="28" t="s">
         <v>181</v>
       </c>
     </row>
@@ -4334,19 +4375,19 @@
       <c r="B30" s="4">
         <v>959</v>
       </c>
-      <c r="C30" s="32" t="s">
+      <c r="C30" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="D30" s="32" t="s">
+      <c r="D30" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="E30" s="32" t="s">
+      <c r="E30" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="F30" s="32" t="s">
+      <c r="F30" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="G30" s="33" t="s">
+      <c r="G30" s="30" t="s">
         <v>135</v>
       </c>
     </row>
@@ -4357,19 +4398,19 @@
       <c r="B31" s="4">
         <v>58</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="D31" s="32" t="s">
+      <c r="D31" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="E31" s="32" t="s">
+      <c r="E31" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="F31" s="32" t="s">
+      <c r="F31" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="G31" s="33" t="s">
+      <c r="G31" s="30" t="s">
         <v>136</v>
       </c>
     </row>
@@ -4380,19 +4421,19 @@
       <c r="B32" s="4">
         <v>41</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="D32" s="32" t="s">
+      <c r="D32" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="E32" s="32" t="s">
+      <c r="E32" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="F32" s="32" t="s">
+      <c r="F32" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="G32" s="33" t="s">
+      <c r="G32" s="30" t="s">
         <v>139</v>
       </c>
     </row>
@@ -4403,19 +4444,19 @@
       <c r="B33" s="4">
         <v>37</v>
       </c>
-      <c r="C33" s="32" t="s">
+      <c r="C33" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="32" t="s">
+      <c r="D33" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="E33" s="32" t="s">
+      <c r="E33" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="F33" s="32" t="s">
+      <c r="F33" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="G33" s="33" t="s">
+      <c r="G33" s="30" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4426,19 +4467,19 @@
       <c r="B34" s="4">
         <v>22</v>
       </c>
-      <c r="C34" s="32" t="s">
+      <c r="C34" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="32" t="s">
+      <c r="D34" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="E34" s="32" t="s">
+      <c r="E34" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="F34" s="32" t="s">
+      <c r="F34" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="G34" s="33" t="s">
+      <c r="G34" s="30" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4449,19 +4490,19 @@
       <c r="B35" s="4">
         <v>22</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="C35" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="32" t="s">
+      <c r="D35" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="E35" s="32" t="s">
+      <c r="E35" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="F35" s="32" t="s">
+      <c r="F35" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="G35" s="33" t="s">
+      <c r="G35" s="30" t="s">
         <v>142</v>
       </c>
     </row>
@@ -4472,19 +4513,19 @@
       <c r="B36" s="4">
         <v>21</v>
       </c>
-      <c r="C36" s="32" t="s">
+      <c r="C36" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D36" s="32" t="s">
+      <c r="D36" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="E36" s="32" t="s">
+      <c r="E36" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="F36" s="32" t="s">
+      <c r="F36" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="G36" s="33" t="s">
+      <c r="G36" s="30" t="s">
         <v>143</v>
       </c>
     </row>
@@ -4495,19 +4536,19 @@
       <c r="B37" s="4">
         <v>16</v>
       </c>
-      <c r="C37" s="32" t="s">
+      <c r="C37" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="32" t="s">
+      <c r="D37" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="E37" s="32" t="s">
+      <c r="E37" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="F37" s="32" t="s">
+      <c r="F37" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="G37" s="33" t="s">
+      <c r="G37" s="30" t="s">
         <v>144</v>
       </c>
     </row>
@@ -4518,19 +4559,19 @@
       <c r="B38" s="4">
         <v>16</v>
       </c>
-      <c r="C38" s="32" t="s">
+      <c r="C38" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="D38" s="32" t="s">
+      <c r="D38" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="E38" s="32" t="s">
+      <c r="E38" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="F38" s="32" t="s">
+      <c r="F38" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="G38" s="33" t="s">
+      <c r="G38" s="30" t="s">
         <v>138</v>
       </c>
     </row>
@@ -4541,19 +4582,19 @@
       <c r="B39" s="4">
         <v>11</v>
       </c>
-      <c r="C39" s="32" t="s">
+      <c r="C39" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="D39" s="32" t="s">
+      <c r="D39" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="E39" s="32" t="s">
+      <c r="E39" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="F39" s="32" t="s">
+      <c r="F39" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="G39" s="33" t="s">
+      <c r="G39" s="30" t="s">
         <v>140</v>
       </c>
     </row>
@@ -4564,19 +4605,19 @@
       <c r="B40" s="4">
         <v>6</v>
       </c>
-      <c r="C40" s="32" t="s">
+      <c r="C40" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="D40" s="32" t="s">
+      <c r="D40" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="E40" s="32" t="s">
+      <c r="E40" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="F40" s="32" t="s">
+      <c r="F40" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="G40" s="33" t="s">
+      <c r="G40" s="30" t="s">
         <v>147</v>
       </c>
     </row>
@@ -4587,19 +4628,19 @@
       <c r="B41" s="4">
         <v>2</v>
       </c>
-      <c r="C41" s="32" t="s">
+      <c r="C41" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="D41" s="32" t="s">
+      <c r="D41" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="E41" s="32" t="s">
+      <c r="E41" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="F41" s="32" t="s">
+      <c r="F41" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="G41" s="33" t="s">
+      <c r="G41" s="30" t="s">
         <v>150</v>
       </c>
     </row>
@@ -4610,19 +4651,19 @@
       <c r="B42" s="4">
         <v>2</v>
       </c>
-      <c r="C42" s="32" t="s">
+      <c r="C42" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="D42" s="32" t="s">
+      <c r="D42" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="E42" s="32" t="s">
+      <c r="E42" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="F42" s="32" t="s">
+      <c r="F42" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="G42" s="33" t="s">
+      <c r="G42" s="30" t="s">
         <v>151</v>
       </c>
     </row>
@@ -4633,19 +4674,19 @@
       <c r="B43" s="4">
         <v>2</v>
       </c>
-      <c r="C43" s="32" t="s">
+      <c r="C43" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="D43" s="32" t="s">
+      <c r="D43" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="E43" s="32" t="s">
+      <c r="E43" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="F43" s="32" t="s">
+      <c r="F43" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="G43" s="33" t="s">
+      <c r="G43" s="30" t="s">
         <v>145</v>
       </c>
     </row>
@@ -4656,19 +4697,19 @@
       <c r="B44" s="4">
         <v>1</v>
       </c>
-      <c r="C44" s="32" t="s">
+      <c r="C44" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="D44" s="32" t="s">
+      <c r="D44" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="E44" s="32" t="s">
+      <c r="E44" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="F44" s="32" t="s">
+      <c r="F44" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="G44" s="33" t="s">
+      <c r="G44" s="30" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4679,19 +4720,19 @@
       <c r="B45" s="4">
         <v>1</v>
       </c>
-      <c r="C45" s="32" t="s">
+      <c r="C45" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="D45" s="32" t="s">
+      <c r="D45" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="E45" s="32" t="s">
+      <c r="E45" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="F45" s="32" t="s">
+      <c r="F45" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="G45" s="33" t="s">
+      <c r="G45" s="30" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4702,19 +4743,19 @@
       <c r="B46" s="4">
         <v>1</v>
       </c>
-      <c r="C46" s="32" t="s">
+      <c r="C46" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="D46" s="32" t="s">
+      <c r="D46" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="E46" s="32" t="s">
+      <c r="E46" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="F46" s="32" t="s">
+      <c r="F46" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="G46" s="33" t="s">
+      <c r="G46" s="30" t="s">
         <v>154</v>
       </c>
     </row>
@@ -4725,19 +4766,19 @@
       <c r="B47" s="4">
         <v>1</v>
       </c>
-      <c r="C47" s="32" t="s">
+      <c r="C47" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="D47" s="32" t="s">
+      <c r="D47" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="E47" s="32" t="s">
+      <c r="E47" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="F47" s="32" t="s">
+      <c r="F47" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="G47" s="33" t="s">
+      <c r="G47" s="30" t="s">
         <v>178</v>
       </c>
     </row>
@@ -4748,19 +4789,19 @@
       <c r="B48" s="4">
         <v>1</v>
       </c>
-      <c r="C48" s="32" t="s">
+      <c r="C48" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="D48" s="32" t="s">
+      <c r="D48" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="E48" s="32" t="s">
+      <c r="E48" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="F48" s="32" t="s">
+      <c r="F48" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="G48" s="33" t="s">
+      <c r="G48" s="30" t="s">
         <v>179</v>
       </c>
     </row>
@@ -4771,19 +4812,19 @@
       <c r="B49" s="17">
         <v>1</v>
       </c>
-      <c r="C49" s="34" t="s">
+      <c r="C49" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="D49" s="34" t="s">
+      <c r="D49" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="E49" s="34" t="s">
+      <c r="E49" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="F49" s="34" t="s">
+      <c r="F49" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="G49" s="35" t="s">
+      <c r="G49" s="32" t="s">
         <v>180</v>
       </c>
     </row>
@@ -4804,8 +4845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:G49"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30:G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4819,54 +4860,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
     </row>
     <row r="2" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -4890,14 +4931,14 @@
       <c r="G3" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
@@ -4921,14 +4962,14 @@
       <c r="G4" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
@@ -4952,14 +4993,14 @@
       <c r="G5" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
     </row>
     <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -4983,14 +5024,14 @@
       <c r="G6" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
     </row>
     <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
@@ -5014,14 +5055,14 @@
       <c r="G7" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
     </row>
     <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
@@ -5045,14 +5086,14 @@
       <c r="G8" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
@@ -5076,14 +5117,14 @@
       <c r="G9" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
@@ -5107,14 +5148,14 @@
       <c r="G10" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
@@ -5138,14 +5179,14 @@
       <c r="G11" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
@@ -5169,14 +5210,14 @@
       <c r="G12" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
@@ -5200,14 +5241,14 @@
       <c r="G13" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
@@ -5231,14 +5272,14 @@
       <c r="G14" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
@@ -5262,14 +5303,14 @@
       <c r="G15" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
@@ -5293,14 +5334,14 @@
       <c r="G16" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
@@ -5324,14 +5365,14 @@
       <c r="G17" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
@@ -5355,14 +5396,14 @@
       <c r="G18" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
@@ -5386,14 +5427,14 @@
       <c r="G19" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
     </row>
     <row r="20" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
@@ -5417,14 +5458,14 @@
       <c r="G20" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
     </row>
     <row r="21" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
@@ -5448,14 +5489,14 @@
       <c r="G21" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
     </row>
     <row r="22" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
@@ -5479,55 +5520,55 @@
       <c r="G22" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
     </row>
     <row r="26" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
     </row>
     <row r="28" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="30" t="s">
+      <c r="D29" s="27" t="s">
         <v>265</v>
       </c>
-      <c r="E29" s="30" t="s">
+      <c r="E29" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="F29" s="30" t="s">
+      <c r="F29" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="G29" s="31" t="s">
+      <c r="G29" s="28" t="s">
         <v>181</v>
       </c>
     </row>
@@ -6007,8 +6048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:G29"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6022,54 +6063,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="36" t="s">
         <v>353</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
     </row>
     <row r="2" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="27" t="s">
         <v>265</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -6093,14 +6134,14 @@
       <c r="G3" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
@@ -6124,14 +6165,14 @@
       <c r="G4" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
@@ -6155,14 +6196,14 @@
       <c r="G5" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
     </row>
     <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -6186,14 +6227,14 @@
       <c r="G6" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
     </row>
     <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
@@ -6217,14 +6258,14 @@
       <c r="G7" s="16" t="s">
         <v>333</v>
       </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
     </row>
     <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
@@ -6248,14 +6289,14 @@
       <c r="G8" s="16" t="s">
         <v>336</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
@@ -6279,14 +6320,14 @@
       <c r="G9" s="16" t="s">
         <v>335</v>
       </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
@@ -6310,14 +6351,14 @@
       <c r="G10" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
@@ -6341,14 +6382,14 @@
       <c r="G11" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
@@ -6372,14 +6413,14 @@
       <c r="G12" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
@@ -6403,14 +6444,14 @@
       <c r="G13" s="16" t="s">
         <v>330</v>
       </c>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
@@ -6434,14 +6475,14 @@
       <c r="G14" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
@@ -6465,14 +6506,14 @@
       <c r="G15" s="16" t="s">
         <v>341</v>
       </c>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
@@ -6496,14 +6537,14 @@
       <c r="G16" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
@@ -6527,14 +6568,14 @@
       <c r="G17" s="16" t="s">
         <v>343</v>
       </c>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
@@ -6558,14 +6599,14 @@
       <c r="G18" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
@@ -6589,14 +6630,14 @@
       <c r="G19" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
     </row>
     <row r="20" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
@@ -6620,14 +6661,14 @@
       <c r="G20" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
     </row>
     <row r="21" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
@@ -6651,14 +6692,14 @@
       <c r="G21" s="16" t="s">
         <v>345</v>
       </c>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
     </row>
     <row r="22" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
@@ -6682,55 +6723,55 @@
       <c r="G22" s="18" t="s">
         <v>342</v>
       </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
     </row>
     <row r="26" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="36" t="s">
         <v>352</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
     </row>
     <row r="28" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="30" t="s">
+      <c r="D29" s="27" t="s">
         <v>265</v>
       </c>
-      <c r="E29" s="30" t="s">
+      <c r="E29" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="F29" s="30" t="s">
+      <c r="F29" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="G29" s="31" t="s">
+      <c r="G29" s="28" t="s">
         <v>181</v>
       </c>
     </row>
@@ -7204,4 +7245,288 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E9:O34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="5:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="37"/>
+      <c r="H10" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="I10" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="K10" s="28" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="5:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="E11" s="39" t="s">
+        <v>363</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="43">
+        <f>G17/$G$17</f>
+        <v>1</v>
+      </c>
+      <c r="H11" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="J11" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="K11" s="30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="5:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="E12" s="39" t="s">
+        <v>364</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="G12" s="43">
+        <f>G18/$G$17</f>
+        <v>8.3288288288288284E-2</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="13" spans="5:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="41" t="s">
+        <v>365</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="G13" s="44">
+        <f>G19/$G$17</f>
+        <v>1.0585585585585587E-2</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="K13" s="18" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <f>3*60+42</f>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G18" s="33">
+        <v>18.489999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="33">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="33" spans="11:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="11:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F10:G10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E9:K19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="5:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="E10" s="38" t="s">
+        <v>366</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="37"/>
+      <c r="H10" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="I10" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="K10" s="28" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="5:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="E11" s="39" t="s">
+        <v>363</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="40">
+        <f>G17/$G$17</f>
+        <v>1</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="5:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="E12" s="39" t="s">
+        <v>364</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="G12" s="40">
+        <f>G18/$G$17</f>
+        <v>0.46689189189189184</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="13" spans="5:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="41" t="s">
+        <v>365</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="G13" s="42">
+        <f>G19/$G$17</f>
+        <v>7.4054054054054057E-3</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="K13" s="18" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <f>1*60+14</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G18" s="33">
+        <v>34.549999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="33">
+        <v>0.54800000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F10:G10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>